--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versiòn plantillas\Versión borrado de meses y fechas SOLO SE DEJO AÑOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86388BB2-585B-44A8-8D0C-E913D09E8261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0992C41E-CADC-4C99-A642-7FC2CB515ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2A4336DF-036F-4896-AF99-78CB4DC7A078}"/>
   </bookViews>
@@ -121,10 +121,10 @@
     <t>Región en la que se implementa. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Cantidad de sistemas fotovoltaicos instalados. Inserte su dato</t>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
   </si>
   <si>
-    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+    <t>Cantidad de sistemas fotovoltaicos instalados y en operación. Inserte su dato</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="A1:D312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -660,7 +660,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
       <c r="D312" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c+sZLv/7QotwoSH8NLrbXf3GRUkhaN0cBfqbPv6J0q3XtSnUYhIA4e8fjt1gLRa9yBrABd1+INFWQ8DG0I+jLw==" saltValue="KGYB2tAeWUfOi06Vdvib4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D1jb+BVHXg+8FN+IzNI5Th3jC5z0HDYlC2VhFi7sHZYliF1qHVJxQcb+zfEhwubYI+937IFDsioYQ1LDmhGvBA==" saltValue="qPAm7oAfLRQe2o/mYNoM5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0992C41E-CADC-4C99-A642-7FC2CB515ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E89906C-9E26-401B-88DC-7D05A3DB8C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2A4336DF-036F-4896-AF99-78CB4DC7A078}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:D312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
